--- a/biology/Botanique/Vitex_grandifolia/Vitex_grandifolia.xlsx
+++ b/biology/Botanique/Vitex_grandifolia/Vitex_grandifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vitex grandifolia Gürke (ou Vitex bipindensis)[2] est un arbre de la famille des Lamiaceae selon la classification phylogénétique[3]. Cette espèce décrite au Cameroun et au Gabon (evino) se développe dans les forêts denses et secondaires d'Afrique centrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vitex grandifolia Gürke (ou Vitex bipindensis) est un arbre de la famille des Lamiaceae selon la classification phylogénétique. Cette espèce décrite au Cameroun et au Gabon (evino) se développe dans les forêts denses et secondaires d'Afrique centrale.
 L’épithète spécifique  bipindensis fait référence à Bipindi, une localité du sud du Cameroun.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit arbre fruitier atteint environ 20 à 30 mètres de hauteur. Il est caractérisé par ses feuilles à 5 folioles et ses fleurs jaune-pâle à brun-pâle, à courts pédoncules et disposées en cymes.
 </t>
@@ -543,9 +557,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouve dans la localité de Bipindi[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouve dans la localité de Bipindi.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 juin 2018)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 juin 2018) :
 variété Vitex grandifolia var. bipendensis (Gürke) Piep.</t>
         </is>
       </c>
